--- a/power_bi_input/input.xlsx
+++ b/power_bi_input/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="305">
   <si>
     <t>Ref</t>
   </si>
@@ -504,9 +504,6 @@
     <t>A dashboard is in place and updated timely to display the situation and the activities being implemented (1 month)</t>
   </si>
   <si>
-    <t>A dashboard is in place and updated timely to display the situation and the activities being implemented (72h) date</t>
-  </si>
-  <si>
     <t>Disaster Brief done to inform the FAD between 48-72 h</t>
   </si>
   <si>
@@ -633,112 +630,112 @@
     <t xml:space="preserve">Identification of 1st rotation RR personnel within 5 days of the alert *if not aligned to readiness process could be slower </t>
   </si>
   <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
+    <t>2024-08-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-08-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-09-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-09-02 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-09-15</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2024-07-04</t>
+  </si>
+  <si>
+    <t>2024-07-07</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>2024-08-03</t>
+  </si>
+  <si>
+    <t>2024-08-06</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-08-27</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>2024-09-22</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>2024-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-08-25 00:00:00</t>
+  </si>
+  <si>
     <t>2024-08-30 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-09-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-08-25 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-24</t>
-  </si>
-  <si>
-    <t>2024-07-17</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>2024-09-03</t>
-  </si>
-  <si>
-    <t>2024-07-05</t>
-  </si>
-  <si>
-    <t>2024-07-29</t>
-  </si>
-  <si>
-    <t>2024-08-13 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-08-15 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-09-02 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-09-15</t>
-  </si>
-  <si>
-    <t>2024-09-12</t>
-  </si>
-  <si>
-    <t>2024-07-04</t>
-  </si>
-  <si>
-    <t>2024-07-07</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>2024-08-02</t>
-  </si>
-  <si>
-    <t>2024-08-03</t>
-  </si>
-  <si>
-    <t>2024-08-06</t>
-  </si>
-  <si>
-    <t>2024-08-26</t>
-  </si>
-  <si>
-    <t>2024-08-27</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>2024-09-20</t>
-  </si>
-  <si>
-    <t>2024-09-22</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>2024-07-02</t>
-  </si>
-  <si>
-    <t>2024-08-30</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>2024-07-05 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-08-10 00:00:00</t>
   </si>
   <si>
     <t>2024-08-29 00:00:00</t>
@@ -1412,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="S2">
-        <v>0.8333333333333334</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="T2">
         <v>0.75</v>
@@ -1471,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="S3">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T3">
         <v>0.5833333333333334</v>
@@ -1648,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="S6">
-        <v>0.7083333333333334</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="T6">
         <v>0.6764705882352942</v>
@@ -2526,7 +2523,7 @@
         <v>3</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K7">
         <v>0.5</v>
@@ -2561,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K8">
         <v>0.5</v>
@@ -2666,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K11">
         <v>0.5</v>
@@ -6648,7 +6645,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H320"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6697,7 +6694,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -6723,7 +6720,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6749,7 +6746,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6801,7 +6798,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -6827,7 +6824,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -6853,7 +6850,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -6879,7 +6876,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -6905,7 +6902,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -6931,7 +6928,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -6957,7 +6954,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -6983,7 +6980,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -7009,7 +7006,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -7035,7 +7032,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -7061,7 +7058,7 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -7087,7 +7084,7 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -7139,7 +7136,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -7165,7 +7162,7 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -7191,7 +7188,7 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -7217,7 +7214,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G22">
         <v>18</v>
@@ -7243,7 +7240,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -7269,7 +7266,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -7295,7 +7292,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -7321,7 +7318,7 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>11</v>
@@ -7347,7 +7344,7 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G27">
         <v>14</v>
@@ -7373,7 +7370,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G28">
         <v>17</v>
@@ -7399,7 +7396,7 @@
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G29">
         <v>20</v>
@@ -7425,7 +7422,7 @@
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G30">
         <v>22</v>
@@ -7451,7 +7448,7 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G31">
         <v>15</v>
@@ -7477,7 +7474,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G32">
         <v>18</v>
@@ -7503,7 +7500,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G33">
         <v>19</v>
@@ -7529,7 +7526,7 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -7555,7 +7552,7 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -7581,7 +7578,7 @@
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -7659,7 +7656,7 @@
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G39">
         <v>17</v>
@@ -7685,7 +7682,7 @@
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G40">
         <v>23</v>
@@ -7711,7 +7708,7 @@
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G41">
         <v>25</v>
@@ -7737,7 +7734,7 @@
         <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G42">
         <v>28</v>
@@ -7763,7 +7760,7 @@
         <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G43">
         <v>14</v>
@@ -7789,7 +7786,7 @@
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G44">
         <v>18</v>
@@ -7815,7 +7812,7 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G45">
         <v>22</v>
@@ -7841,7 +7838,7 @@
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G46">
         <v>24</v>
@@ -7893,7 +7890,7 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G48">
         <v>12</v>
@@ -7919,7 +7916,7 @@
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G49">
         <v>14</v>
@@ -7945,7 +7942,7 @@
         <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G50">
         <v>15</v>
@@ -7971,7 +7968,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G51">
         <v>19</v>
@@ -8023,7 +8020,7 @@
         <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -8049,7 +8046,7 @@
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G54">
         <v>21</v>
@@ -8075,7 +8072,7 @@
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G55">
         <v>14</v>
@@ -8101,7 +8098,7 @@
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G56">
         <v>14</v>
@@ -8127,7 +8124,7 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -8153,7 +8150,7 @@
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -8179,7 +8176,7 @@
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -8205,7 +8202,7 @@
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -8231,7 +8228,7 @@
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -8257,7 +8254,7 @@
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -8283,7 +8280,7 @@
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -8309,7 +8306,7 @@
         <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -8335,7 +8332,7 @@
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -8361,7 +8358,7 @@
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -8387,7 +8384,7 @@
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -8413,7 +8410,7 @@
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -8439,7 +8436,7 @@
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -8465,7 +8462,7 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -8491,7 +8488,7 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -8517,7 +8514,7 @@
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -8543,7 +8540,7 @@
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -8569,7 +8566,7 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -8595,7 +8592,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -8621,7 +8618,7 @@
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -8647,7 +8644,7 @@
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -8673,7 +8670,7 @@
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -8699,7 +8696,7 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -8725,7 +8722,7 @@
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -8751,7 +8748,7 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -8768,22 +8765,22 @@
         <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s">
-        <v>205</v>
+        <v>243</v>
+      </c>
+      <c r="G82">
+        <v>6</v>
       </c>
       <c r="H82">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8794,19 +8791,22 @@
         <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>239</v>
-      </c>
-      <c r="G83" t="s">
-        <v>11</v>
+        <v>244</v>
+      </c>
+      <c r="G83">
+        <v>8</v>
+      </c>
+      <c r="H83">
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8817,48 +8817,48 @@
         <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s">
-        <v>240</v>
+        <v>245</v>
+      </c>
+      <c r="G84">
+        <v>13</v>
       </c>
       <c r="H84">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
         <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s">
-        <v>205</v>
+        <v>219</v>
+      </c>
+      <c r="G85">
+        <v>20</v>
       </c>
       <c r="H85">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8869,19 +8869,22 @@
         <v>142</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
         <v>162</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>205</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
+        <v>208</v>
+      </c>
+      <c r="G86">
+        <v>-1</v>
+      </c>
+      <c r="H86">
+        <v>0.3</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8892,71 +8895,74 @@
         <v>142</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s">
-        <v>205</v>
+        <v>246</v>
+      </c>
+      <c r="G87">
+        <v>7</v>
       </c>
       <c r="H87">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" t="s">
         <v>142</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D88" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s">
-        <v>208</v>
+        <v>221</v>
+      </c>
+      <c r="G88">
+        <v>15</v>
       </c>
       <c r="H88">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
         <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>205</v>
-      </c>
-      <c r="G89" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="G89">
+        <v>31</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8967,177 +8973,183 @@
         <v>142</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s">
-        <v>205</v>
+        <v>247</v>
+      </c>
+      <c r="G90">
+        <v>9</v>
       </c>
       <c r="H90">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
         <v>142</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="G91">
+        <v>10</v>
       </c>
       <c r="H91">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
         <v>142</v>
       </c>
       <c r="C92" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E92" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>242</v>
-      </c>
-      <c r="G92" t="s">
-        <v>11</v>
+        <v>249</v>
+      </c>
+      <c r="G92">
+        <v>18</v>
+      </c>
+      <c r="H92">
+        <v>0.6</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
         <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s">
-        <v>243</v>
+        <v>228</v>
+      </c>
+      <c r="G93">
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
         <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="G94">
+        <v>-1</v>
       </c>
       <c r="H94">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" t="s">
         <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>205</v>
-      </c>
-      <c r="G95" t="s">
-        <v>13</v>
+        <v>250</v>
+      </c>
+      <c r="G95">
+        <v>9</v>
+      </c>
+      <c r="H95">
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" t="s">
         <v>142</v>
       </c>
       <c r="C96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s">
-        <v>205</v>
+        <v>216</v>
+      </c>
+      <c r="G96">
+        <v>15</v>
       </c>
       <c r="H96">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B97" t="s">
         <v>142</v>
@@ -9146,24 +9158,24 @@
         <v>131</v>
       </c>
       <c r="D97" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E97" t="s">
         <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H97">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
         <v>142</v>
@@ -9172,24 +9184,24 @@
         <v>131</v>
       </c>
       <c r="D98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G98">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
         <v>142</v>
@@ -9198,24 +9210,24 @@
         <v>131</v>
       </c>
       <c r="D99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G99">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H99">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B100" t="s">
         <v>142</v>
@@ -9224,24 +9236,24 @@
         <v>131</v>
       </c>
       <c r="D100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G100">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H100">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B101" t="s">
         <v>142</v>
@@ -9250,175 +9262,175 @@
         <v>131</v>
       </c>
       <c r="D101" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="G101">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
         <v>142</v>
       </c>
       <c r="C102" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H102">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
         <v>142</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G103">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H103">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B104" t="s">
         <v>142</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D104" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="G104">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="H104">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B105" t="s">
         <v>142</v>
       </c>
       <c r="C105" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D105" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B106" t="s">
         <v>142</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D106" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E106" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H106">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107" t="s">
         <v>142</v>
       </c>
       <c r="C107" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D107" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G107">
         <v>18</v>
       </c>
       <c r="H107">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -9429,45 +9441,45 @@
         <v>142</v>
       </c>
       <c r="C108" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D108" t="s">
         <v>166</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="G108">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
         <v>142</v>
       </c>
       <c r="C109" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D109" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="G109">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="H109">
         <v>0.3</v>
@@ -9475,28 +9487,28 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B110" t="s">
         <v>142</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G110">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H110">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -9507,22 +9519,22 @@
         <v>142</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D111" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="G111">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -9533,45 +9545,45 @@
         <v>142</v>
       </c>
       <c r="C112" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D112" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="G112">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H112">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B113" t="s">
         <v>142</v>
       </c>
       <c r="C113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D113" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
       </c>
       <c r="F113" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G113">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H113">
         <v>0.3</v>
@@ -9585,22 +9597,22 @@
         <v>142</v>
       </c>
       <c r="C114" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D114" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="G114">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -9611,22 +9623,22 @@
         <v>142</v>
       </c>
       <c r="C115" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D115" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F115" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G115">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="H115">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -9637,22 +9649,22 @@
         <v>142</v>
       </c>
       <c r="C116" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D116" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G116">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="H116">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -9663,22 +9675,22 @@
         <v>142</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D117" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -9689,22 +9701,22 @@
         <v>142</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D118" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="G118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9715,22 +9727,22 @@
         <v>142</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D119" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="G119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H119">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9741,22 +9753,22 @@
         <v>142</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D120" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F120" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9767,22 +9779,22 @@
         <v>142</v>
       </c>
       <c r="C121" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D121" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E121" t="s">
         <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G121">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H121">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9793,22 +9805,22 @@
         <v>142</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D122" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G122">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H122">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9819,22 +9831,22 @@
         <v>142</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D123" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9845,22 +9857,22 @@
         <v>142</v>
       </c>
       <c r="C124" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D124" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="G124">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9871,22 +9883,22 @@
         <v>142</v>
       </c>
       <c r="C125" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D125" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="G125">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H125">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9897,22 +9909,22 @@
         <v>142</v>
       </c>
       <c r="C126" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D126" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9923,22 +9935,22 @@
         <v>142</v>
       </c>
       <c r="C127" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D127" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G127">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9949,22 +9961,22 @@
         <v>142</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D128" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="G128">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9975,22 +9987,22 @@
         <v>142</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D129" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -10001,22 +10013,22 @@
         <v>142</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D130" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="G130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -10027,475 +10039,475 @@
         <v>142</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H131">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D133" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="G133">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D134" t="s">
         <v>172</v>
       </c>
       <c r="E134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F134" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H134">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D135" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E135" t="s">
         <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H135">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D136" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="G136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C137" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D137" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E137" t="s">
         <v>15</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="G137">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H137">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C138" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D138" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
       </c>
       <c r="F138" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H138">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D139" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H139">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D140" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F140" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H140">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D141" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E141" t="s">
         <v>15</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H141">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D142" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F142" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H142">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>270</v>
+      </c>
+      <c r="G143">
         <v>23</v>
       </c>
-      <c r="B143" t="s">
-        <v>142</v>
-      </c>
-      <c r="C143" t="s">
-        <v>134</v>
-      </c>
-      <c r="D143" t="s">
-        <v>172</v>
-      </c>
-      <c r="E143" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" t="s">
-        <v>237</v>
-      </c>
-      <c r="G143">
-        <v>2</v>
-      </c>
       <c r="H143">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D144" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E144" t="s">
         <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H144">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D145" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F145" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H145">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C146" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D146" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F146" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H146">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B147" t="s">
         <v>143</v>
       </c>
       <c r="C147" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D147" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F147" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H147">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B148" t="s">
         <v>143</v>
       </c>
       <c r="C148" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D148" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F148" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H148">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B149" t="s">
         <v>143</v>
       </c>
       <c r="C149" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D149" t="s">
         <v>173</v>
@@ -10504,13 +10516,13 @@
         <v>15</v>
       </c>
       <c r="F149" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G149">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H149">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -10521,53 +10533,53 @@
         <v>143</v>
       </c>
       <c r="C150" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D150" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
       </c>
       <c r="F150" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G150">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H150">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B151" t="s">
         <v>143</v>
       </c>
       <c r="C151" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D151" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F151" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H151">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B152" t="s">
         <v>143</v>
@@ -10576,16 +10588,16 @@
         <v>128</v>
       </c>
       <c r="D152" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="G152">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H152">
         <v>0.5</v>
@@ -10593,7 +10605,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B153" t="s">
         <v>143</v>
@@ -10602,16 +10614,16 @@
         <v>128</v>
       </c>
       <c r="D153" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E153" t="s">
         <v>15</v>
       </c>
       <c r="F153" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="G153">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H153">
         <v>0.5</v>
@@ -10619,7 +10631,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B154" t="s">
         <v>143</v>
@@ -10628,16 +10640,16 @@
         <v>128</v>
       </c>
       <c r="D154" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="E154" t="s">
         <v>15</v>
       </c>
       <c r="F154" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="G154">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H154">
         <v>0.5</v>
@@ -10645,7 +10657,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B155" t="s">
         <v>143</v>
@@ -10654,16 +10666,16 @@
         <v>128</v>
       </c>
       <c r="D155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
       </c>
       <c r="F155" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G155">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H155">
         <v>0.5</v>
@@ -10671,7 +10683,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B156" t="s">
         <v>143</v>
@@ -10680,16 +10692,16 @@
         <v>128</v>
       </c>
       <c r="D156" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
       </c>
       <c r="F156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G156">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H156">
         <v>0.5</v>
@@ -10697,54 +10709,54 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B157" t="s">
         <v>143</v>
       </c>
       <c r="C157" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D157" t="s">
         <v>175</v>
       </c>
       <c r="E157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="G157">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H157">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B158" t="s">
         <v>143</v>
       </c>
       <c r="C158" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D158" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="G158">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10755,48 +10767,48 @@
         <v>143</v>
       </c>
       <c r="C159" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D159" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="G159">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H159">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B160" t="s">
         <v>143</v>
       </c>
       <c r="C160" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D160" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E160" t="s">
         <v>15</v>
       </c>
       <c r="F160" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G160">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H160">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10807,22 +10819,22 @@
         <v>143</v>
       </c>
       <c r="C161" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D161" t="s">
         <v>175</v>
       </c>
       <c r="E161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="G161">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H161">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10833,48 +10845,48 @@
         <v>143</v>
       </c>
       <c r="C162" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D162" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="G162">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B163" t="s">
         <v>143</v>
       </c>
       <c r="C163" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D163" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F163" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G163">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H163">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10885,33 +10897,33 @@
         <v>143</v>
       </c>
       <c r="C164" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D164" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E164" t="s">
         <v>15</v>
       </c>
       <c r="F164" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G164">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H164">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B165" t="s">
         <v>143</v>
       </c>
       <c r="C165" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D165" t="s">
         <v>175</v>
@@ -10920,62 +10932,62 @@
         <v>15</v>
       </c>
       <c r="F165" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G165">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H165">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B166" t="s">
         <v>143</v>
       </c>
       <c r="C166" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D166" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
       </c>
       <c r="F166" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G166">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H166">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B167" t="s">
         <v>143</v>
       </c>
       <c r="C167" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D167" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E167" t="s">
         <v>15</v>
       </c>
       <c r="F167" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="G167">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H167">
         <v>0.5</v>
@@ -10983,51 +10995,51 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B168" t="s">
         <v>143</v>
       </c>
       <c r="C168" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D168" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
       </c>
       <c r="F168" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="G168">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H168">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B169" t="s">
         <v>143</v>
       </c>
       <c r="C169" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D169" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E169" t="s">
         <v>15</v>
       </c>
       <c r="F169" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G169">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H169">
         <v>0.5</v>
@@ -11035,51 +11047,51 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B170" t="s">
         <v>143</v>
       </c>
       <c r="C170" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D170" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="E170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G170">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H170">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B171" t="s">
         <v>143</v>
       </c>
       <c r="C171" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D171" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E171" t="s">
         <v>15</v>
       </c>
       <c r="F171" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="G171">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H171">
         <v>0.5</v>
@@ -11087,91 +11099,91 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B172" t="s">
         <v>143</v>
       </c>
       <c r="C172" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D172" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F172" t="s">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="G172">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H172">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B173" t="s">
         <v>143</v>
       </c>
       <c r="C173" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D173" t="s">
         <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H173">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B174" t="s">
         <v>143</v>
       </c>
       <c r="C174" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D174" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="G174">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H174">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B175" t="s">
         <v>143</v>
       </c>
       <c r="C175" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D175" t="s">
         <v>177</v>
@@ -11180,143 +11192,143 @@
         <v>15</v>
       </c>
       <c r="F175" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H175">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B176" t="s">
         <v>143</v>
       </c>
       <c r="C176" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D176" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="G176">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H176">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B177" t="s">
         <v>143</v>
       </c>
       <c r="C177" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D177" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H177">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B178" t="s">
         <v>143</v>
       </c>
       <c r="C178" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D178" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G178">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H178">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B179" t="s">
         <v>143</v>
       </c>
       <c r="C179" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D179" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="G179">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H179">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B180" t="s">
         <v>143</v>
       </c>
       <c r="C180" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D180" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G180">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H180">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -11327,22 +11339,22 @@
         <v>143</v>
       </c>
       <c r="C181" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D181" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="G181">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H181">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -11353,22 +11365,22 @@
         <v>143</v>
       </c>
       <c r="C182" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D182" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G182">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -11379,22 +11391,22 @@
         <v>143</v>
       </c>
       <c r="C183" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D183" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G183">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H183">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -11405,22 +11417,22 @@
         <v>143</v>
       </c>
       <c r="C184" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D184" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="G184">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="H184">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -11431,22 +11443,22 @@
         <v>143</v>
       </c>
       <c r="C185" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D185" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="G185">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H185">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -11457,22 +11469,22 @@
         <v>143</v>
       </c>
       <c r="C186" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D186" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="G186">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -11483,22 +11495,22 @@
         <v>143</v>
       </c>
       <c r="C187" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D187" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G187">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H187">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -11509,22 +11521,22 @@
         <v>143</v>
       </c>
       <c r="C188" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D188" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E188" t="s">
         <v>15</v>
       </c>
       <c r="F188" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="G188">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H188">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -11535,22 +11547,22 @@
         <v>143</v>
       </c>
       <c r="C189" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D189" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="G189">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H189">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -11561,22 +11573,22 @@
         <v>143</v>
       </c>
       <c r="C190" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D190" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
       </c>
       <c r="F190" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G190">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H190">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -11587,22 +11599,22 @@
         <v>143</v>
       </c>
       <c r="C191" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D191" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E191" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F191" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="G191">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H191">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -11613,45 +11625,45 @@
         <v>143</v>
       </c>
       <c r="C192" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D192" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G192">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B193" t="s">
         <v>143</v>
       </c>
       <c r="C193" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D193" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="G193">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -11659,77 +11671,77 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B194" t="s">
         <v>143</v>
       </c>
       <c r="C194" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D194" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F194" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="G194">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B195" t="s">
         <v>143</v>
       </c>
       <c r="C195" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D195" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G195">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B196" t="s">
         <v>143</v>
       </c>
       <c r="C196" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D196" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G196">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -11737,39 +11749,39 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B197" t="s">
         <v>143</v>
       </c>
       <c r="C197" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D197" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F197" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H197">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B198" t="s">
         <v>143</v>
       </c>
       <c r="C198" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D198" t="s">
         <v>182</v>
@@ -11778,88 +11790,88 @@
         <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="G198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B199" t="s">
         <v>143</v>
       </c>
       <c r="C199" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D199" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="G199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B200" t="s">
         <v>143</v>
       </c>
       <c r="C200" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D200" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="G200">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H200">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B201" t="s">
         <v>143</v>
       </c>
       <c r="C201" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D201" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F201" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201">
         <v>0.8</v>
@@ -11867,28 +11879,28 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B202" t="s">
         <v>143</v>
       </c>
       <c r="C202" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D202" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E202" t="s">
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="G202">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11899,48 +11911,48 @@
         <v>143</v>
       </c>
       <c r="C203" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D203" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="G203">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H203">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B204" t="s">
         <v>143</v>
       </c>
       <c r="C204" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D204" t="s">
         <v>182</v>
       </c>
       <c r="E204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F204" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="G204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H204">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11951,22 +11963,22 @@
         <v>143</v>
       </c>
       <c r="C205" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D205" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G205">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11977,33 +11989,33 @@
         <v>143</v>
       </c>
       <c r="C206" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D206" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E206" t="s">
         <v>15</v>
       </c>
       <c r="F206" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="G206">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H206">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B207" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C207" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D207" t="s">
         <v>183</v>
@@ -12012,192 +12024,192 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G207">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B208" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C208" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D208" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="G208">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B209" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C209" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D209" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E209" t="s">
         <v>15</v>
       </c>
       <c r="F209" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H209">
-        <v>0.7</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B210" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C210" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D210" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H210">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B211" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C211" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D211" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B212" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C212" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D212" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="G212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H212">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B213" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C213" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D213" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E213" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H213">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B214" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C214" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D214" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -12205,184 +12217,184 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B215" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C215" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D215" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="G215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H215">
-        <v>0.7</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B216" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C216" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D216" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E216" t="s">
         <v>15</v>
       </c>
       <c r="F216" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H216">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B217" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C217" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D217" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B218" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C218" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D218" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E218" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F218" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G218">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H218">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B219" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C219" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D219" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
       </c>
       <c r="F219" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="G219">
         <v>3</v>
       </c>
       <c r="H219">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B220" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C220" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D220" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F220" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B221" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C221" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D221" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E221" t="s">
         <v>15</v>
       </c>
       <c r="F221" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="G221">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H221">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -12393,22 +12405,22 @@
         <v>144</v>
       </c>
       <c r="C222" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D222" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E222" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -12419,22 +12431,22 @@
         <v>144</v>
       </c>
       <c r="C223" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D223" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E223" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -12445,22 +12457,22 @@
         <v>144</v>
       </c>
       <c r="C224" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D224" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E224" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -12471,22 +12483,22 @@
         <v>144</v>
       </c>
       <c r="C225" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D225" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E225" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F225" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="G225">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -12497,149 +12509,149 @@
         <v>144</v>
       </c>
       <c r="C226" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D226" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="G226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B227" t="s">
         <v>144</v>
       </c>
       <c r="C227" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D227" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E227" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F227" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="G227">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B228" t="s">
         <v>144</v>
       </c>
       <c r="C228" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D228" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F228" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="G228">
         <v>6</v>
       </c>
       <c r="H228">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B229" t="s">
         <v>144</v>
       </c>
       <c r="C229" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D229" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="G229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B230" t="s">
         <v>144</v>
       </c>
       <c r="C230" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D230" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="G230">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B231" t="s">
         <v>144</v>
       </c>
       <c r="C231" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D231" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E231" t="s">
         <v>15</v>
       </c>
       <c r="F231" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="G231">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H231">
         <v>0.5</v>
@@ -12647,80 +12659,80 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B232" t="s">
         <v>144</v>
       </c>
       <c r="C232" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D232" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="E232" t="s">
         <v>14</v>
       </c>
       <c r="F232" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H232">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B233" t="s">
         <v>144</v>
       </c>
       <c r="C233" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D233" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G233">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H233">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B234" t="s">
         <v>144</v>
       </c>
       <c r="C234" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D234" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="G234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12731,19 +12743,19 @@
         <v>144</v>
       </c>
       <c r="C235" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D235" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E235" t="s">
         <v>15</v>
       </c>
       <c r="F235" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="G235">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H235">
         <v>0.5</v>
@@ -12757,22 +12769,22 @@
         <v>144</v>
       </c>
       <c r="C236" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D236" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="E236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="G236">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H236">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12783,19 +12795,19 @@
         <v>144</v>
       </c>
       <c r="C237" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D237" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E237" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -12803,155 +12815,155 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B238" t="s">
         <v>144</v>
       </c>
       <c r="C238" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D238" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E238" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F238" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B239" t="s">
         <v>144</v>
       </c>
       <c r="C239" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D239" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E239" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B240" t="s">
         <v>144</v>
       </c>
       <c r="C240" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D240" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E240" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="G240">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H240">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B241" t="s">
         <v>144</v>
       </c>
       <c r="C241" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D241" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E241" t="s">
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B242" t="s">
         <v>144</v>
       </c>
       <c r="C242" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D242" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E242" t="s">
         <v>15</v>
       </c>
       <c r="F242" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G242">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H242">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B243" t="s">
         <v>144</v>
       </c>
       <c r="C243" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D243" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E243" t="s">
         <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -12959,25 +12971,25 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B244" t="s">
         <v>144</v>
       </c>
       <c r="C244" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D244" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E244" t="s">
         <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G244">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H244">
         <v>0.8333333333333334</v>
@@ -12985,132 +12997,132 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B245" t="s">
         <v>144</v>
       </c>
       <c r="C245" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D245" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E245" t="s">
         <v>14</v>
       </c>
       <c r="F245" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B246" t="s">
         <v>144</v>
       </c>
       <c r="C246" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D246" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E246" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="G246">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B247" t="s">
         <v>144</v>
       </c>
       <c r="C247" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D247" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E247" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F247" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="G247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B248" t="s">
         <v>144</v>
       </c>
       <c r="C248" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D248" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E248" t="s">
         <v>14</v>
       </c>
       <c r="F248" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="G248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B249" t="s">
         <v>144</v>
       </c>
       <c r="C249" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D249" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E249" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F249" t="s">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -13121,22 +13133,22 @@
         <v>144</v>
       </c>
       <c r="C250" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D250" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E250" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F250" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="G250">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H250">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -13147,201 +13159,201 @@
         <v>144</v>
       </c>
       <c r="C251" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D251" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E251" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F251" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="G251">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B252" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C252" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D252" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="E252" t="s">
         <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="G252">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B253" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C253" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D253" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E253" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F253" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G253">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H253">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B254" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C254" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D254" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E254" t="s">
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="G254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B255" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C255" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D255" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="E255" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F255" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G255">
         <v>3</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B256" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C256" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D256" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="G256">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H256">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B257" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C257" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D257" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E257" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="G257">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B258" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C258" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D258" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E258" t="s">
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="G258">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -13349,77 +13361,77 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B259" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C259" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D259" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E259" t="s">
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="G259">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H259">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B260" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C260" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D260" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="E260" t="s">
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="G260">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H260">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B261" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C261" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D261" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="E261" t="s">
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -13427,51 +13439,51 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B262" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C262" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D262" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="E262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>296</v>
+        <v>48</v>
       </c>
       <c r="G262">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H262">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B263" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C263" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D263" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -13479,51 +13491,51 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B264" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C264" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D264" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E264" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" t="s">
+        <v>266</v>
+      </c>
+      <c r="G264">
         <v>15</v>
       </c>
-      <c r="F264" t="s">
-        <v>41</v>
-      </c>
-      <c r="G264">
-        <v>3</v>
-      </c>
       <c r="H264">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B265" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C265" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D265" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="E265" t="s">
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="G265">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -13531,28 +13543,28 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B266" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C266" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D266" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="G266">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H266">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -13563,45 +13575,45 @@
         <v>145</v>
       </c>
       <c r="C267" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D267" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E267" t="s">
         <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="G267">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H267">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B268" t="s">
         <v>145</v>
       </c>
       <c r="C268" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D268" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="E268" t="s">
         <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G268">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -13609,25 +13621,25 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B269" t="s">
         <v>145</v>
       </c>
       <c r="C269" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D269" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -13635,80 +13647,80 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B270" t="s">
         <v>145</v>
       </c>
       <c r="C270" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D270" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E270" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F270" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G270">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H270">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B271" t="s">
         <v>145</v>
       </c>
       <c r="C271" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D271" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="E271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F271" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="G271">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B272" t="s">
         <v>145</v>
       </c>
       <c r="C272" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D272" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E272" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F272" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="G272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -13719,22 +13731,22 @@
         <v>145</v>
       </c>
       <c r="C273" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D273" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="E273" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F273" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="G273">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13745,74 +13757,74 @@
         <v>145</v>
       </c>
       <c r="C274" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D274" t="s">
         <v>197</v>
       </c>
       <c r="E274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F274" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G274">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B275" t="s">
         <v>145</v>
       </c>
       <c r="C275" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D275" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E275" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F275" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="G275">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B276" t="s">
         <v>145</v>
       </c>
       <c r="C276" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D276" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E276" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F276" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="G276">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13823,22 +13835,22 @@
         <v>145</v>
       </c>
       <c r="C277" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D277" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="E277" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F277" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="G277">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13849,22 +13861,22 @@
         <v>145</v>
       </c>
       <c r="C278" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D278" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="E278" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F278" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="G278">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13875,45 +13887,45 @@
         <v>145</v>
       </c>
       <c r="C279" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D279" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E279" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F279" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="G279">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B280" t="s">
         <v>145</v>
       </c>
       <c r="C280" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D280" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="E280" t="s">
         <v>14</v>
       </c>
       <c r="F280" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G280">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H280">
         <v>1</v>
@@ -13927,19 +13939,19 @@
         <v>145</v>
       </c>
       <c r="C281" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D281" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E281" t="s">
         <v>14</v>
       </c>
       <c r="F281" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="G281">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -13953,19 +13965,19 @@
         <v>145</v>
       </c>
       <c r="C282" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D282" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E282" t="s">
         <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="G282">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -13973,25 +13985,25 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B283" t="s">
         <v>145</v>
       </c>
       <c r="C283" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D283" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E283" t="s">
         <v>14</v>
       </c>
       <c r="F283" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="G283">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -14005,19 +14017,19 @@
         <v>145</v>
       </c>
       <c r="C284" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D284" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="E284" t="s">
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="G284">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -14025,80 +14037,80 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B285" t="s">
         <v>145</v>
       </c>
       <c r="C285" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D285" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E285" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F285" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="G285">
         <v>0</v>
       </c>
       <c r="H285">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B286" t="s">
         <v>145</v>
       </c>
       <c r="C286" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D286" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="E286" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H286">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B287" t="s">
         <v>145</v>
       </c>
       <c r="C287" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D287" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="E287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H287">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -14109,22 +14121,22 @@
         <v>145</v>
       </c>
       <c r="C288" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D288" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="E288" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F288" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H288">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -14135,45 +14147,45 @@
         <v>145</v>
       </c>
       <c r="C289" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D289" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="E289" t="s">
         <v>13</v>
       </c>
       <c r="F289" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G289">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B290" t="s">
         <v>145</v>
       </c>
       <c r="C290" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D290" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E290" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F290" t="s">
         <v>208</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H290">
         <v>0.5</v>
@@ -14187,22 +14199,22 @@
         <v>145</v>
       </c>
       <c r="C291" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D291" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E291" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H291">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -14213,19 +14225,19 @@
         <v>145</v>
       </c>
       <c r="C292" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D292" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E292" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H292">
         <v>0.5</v>
@@ -14239,19 +14251,19 @@
         <v>145</v>
       </c>
       <c r="C293" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D293" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E293" t="s">
+        <v>14</v>
+      </c>
+      <c r="F293" t="s">
+        <v>303</v>
+      </c>
+      <c r="G293">
         <v>11</v>
-      </c>
-      <c r="F293" t="s">
-        <v>300</v>
-      </c>
-      <c r="G293">
-        <v>0</v>
       </c>
       <c r="H293">
         <v>0.5</v>
@@ -14259,28 +14271,28 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B294" t="s">
         <v>145</v>
       </c>
       <c r="C294" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D294" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E294" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -14291,22 +14303,22 @@
         <v>145</v>
       </c>
       <c r="C295" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D295" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E295" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>13</v>
-      </c>
-      <c r="G295" t="s">
-        <v>205</v>
+        <v>218</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
       </c>
       <c r="H295">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -14317,45 +14329,48 @@
         <v>145</v>
       </c>
       <c r="C296" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D296" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="E296" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>205</v>
-      </c>
-      <c r="G296" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="G296">
+        <v>5</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B297" t="s">
         <v>145</v>
       </c>
       <c r="C297" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D297" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="E297" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F297" t="s">
-        <v>13</v>
-      </c>
-      <c r="G297" t="s">
-        <v>205</v>
+        <v>265</v>
+      </c>
+      <c r="G297">
+        <v>4</v>
       </c>
       <c r="H297">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -14366,22 +14381,22 @@
         <v>145</v>
       </c>
       <c r="C298" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D298" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E298" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F298" t="s">
-        <v>11</v>
-      </c>
-      <c r="G298" t="s">
-        <v>208</v>
+        <v>42</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
       </c>
       <c r="H298">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -14392,564 +14407,21 @@
         <v>145</v>
       </c>
       <c r="C299" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D299" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="E299" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="F299" t="s">
-        <v>241</v>
-      </c>
-      <c r="G299" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="A300" t="s">
-        <v>34</v>
-      </c>
-      <c r="B300" t="s">
-        <v>145</v>
-      </c>
-      <c r="C300" t="s">
-        <v>130</v>
-      </c>
-      <c r="D300" t="s">
-        <v>160</v>
-      </c>
-      <c r="E300" t="s">
-        <v>11</v>
-      </c>
-      <c r="F300" t="s">
-        <v>13</v>
-      </c>
-      <c r="G300" t="s">
-        <v>300</v>
-      </c>
-      <c r="H300">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="s">
-        <v>33</v>
-      </c>
-      <c r="B301" t="s">
-        <v>145</v>
-      </c>
-      <c r="C301" t="s">
-        <v>131</v>
-      </c>
-      <c r="D301" t="s">
-        <v>199</v>
-      </c>
-      <c r="E301" t="s">
-        <v>14</v>
-      </c>
-      <c r="F301" t="s">
-        <v>301</v>
-      </c>
-      <c r="G301">
-        <v>3</v>
-      </c>
-      <c r="H301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" t="s">
-        <v>33</v>
-      </c>
-      <c r="B302" t="s">
-        <v>145</v>
-      </c>
-      <c r="C302" t="s">
-        <v>131</v>
-      </c>
-      <c r="D302" t="s">
-        <v>164</v>
-      </c>
-      <c r="E302" t="s">
-        <v>14</v>
-      </c>
-      <c r="F302" t="s">
-        <v>53</v>
-      </c>
-      <c r="G302">
-        <v>0</v>
-      </c>
-      <c r="H302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" t="s">
-        <v>33</v>
-      </c>
-      <c r="B303" t="s">
-        <v>145</v>
-      </c>
-      <c r="C303" t="s">
-        <v>131</v>
-      </c>
-      <c r="D303" t="s">
-        <v>200</v>
-      </c>
-      <c r="E303" t="s">
-        <v>14</v>
-      </c>
-      <c r="F303" t="s">
-        <v>256</v>
-      </c>
-      <c r="G303">
-        <v>10</v>
-      </c>
-      <c r="H303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
-        <v>33</v>
-      </c>
-      <c r="B304" t="s">
-        <v>145</v>
-      </c>
-      <c r="C304" t="s">
-        <v>131</v>
-      </c>
-      <c r="D304" t="s">
-        <v>201</v>
-      </c>
-      <c r="E304" t="s">
-        <v>14</v>
-      </c>
-      <c r="F304" t="s">
-        <v>225</v>
-      </c>
-      <c r="G304">
-        <v>27</v>
-      </c>
-      <c r="H304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" t="s">
-        <v>34</v>
-      </c>
-      <c r="B305" t="s">
-        <v>145</v>
-      </c>
-      <c r="C305" t="s">
-        <v>131</v>
-      </c>
-      <c r="D305" t="s">
-        <v>199</v>
-      </c>
-      <c r="E305" t="s">
-        <v>14</v>
-      </c>
-      <c r="F305" t="s">
-        <v>211</v>
-      </c>
-      <c r="G305">
-        <v>3</v>
-      </c>
-      <c r="H305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="A306" t="s">
-        <v>34</v>
-      </c>
-      <c r="B306" t="s">
-        <v>145</v>
-      </c>
-      <c r="C306" t="s">
-        <v>131</v>
-      </c>
-      <c r="D306" t="s">
-        <v>164</v>
-      </c>
-      <c r="E306" t="s">
-        <v>14</v>
-      </c>
-      <c r="F306" t="s">
-        <v>47</v>
-      </c>
-      <c r="G306">
-        <v>0</v>
-      </c>
-      <c r="H306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
-        <v>34</v>
-      </c>
-      <c r="B307" t="s">
-        <v>145</v>
-      </c>
-      <c r="C307" t="s">
-        <v>131</v>
-      </c>
-      <c r="D307" t="s">
-        <v>200</v>
-      </c>
-      <c r="E307" t="s">
-        <v>14</v>
-      </c>
-      <c r="F307" t="s">
-        <v>294</v>
-      </c>
-      <c r="G307">
-        <v>9</v>
-      </c>
-      <c r="H307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" t="s">
-        <v>34</v>
-      </c>
-      <c r="B308" t="s">
-        <v>145</v>
-      </c>
-      <c r="C308" t="s">
-        <v>131</v>
-      </c>
-      <c r="D308" t="s">
-        <v>201</v>
-      </c>
-      <c r="E308" t="s">
-        <v>14</v>
-      </c>
-      <c r="F308" t="s">
-        <v>44</v>
-      </c>
-      <c r="G308">
-        <v>22</v>
-      </c>
-      <c r="H308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" t="s">
-        <v>33</v>
-      </c>
-      <c r="B309" t="s">
-        <v>145</v>
-      </c>
-      <c r="C309" t="s">
-        <v>132</v>
-      </c>
-      <c r="D309" t="s">
-        <v>202</v>
-      </c>
-      <c r="E309" t="s">
-        <v>14</v>
-      </c>
-      <c r="F309" t="s">
-        <v>302</v>
-      </c>
-      <c r="G309">
-        <v>7</v>
-      </c>
-      <c r="H309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
-        <v>33</v>
-      </c>
-      <c r="B310" t="s">
-        <v>145</v>
-      </c>
-      <c r="C310" t="s">
-        <v>132</v>
-      </c>
-      <c r="D310" t="s">
-        <v>168</v>
-      </c>
-      <c r="E310" t="s">
-        <v>13</v>
-      </c>
-      <c r="F310" t="s">
-        <v>205</v>
-      </c>
-      <c r="G310">
-        <v>-1</v>
-      </c>
-      <c r="H310">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="A311" t="s">
-        <v>33</v>
-      </c>
-      <c r="B311" t="s">
-        <v>145</v>
-      </c>
-      <c r="C311" t="s">
-        <v>132</v>
-      </c>
-      <c r="D311" t="s">
-        <v>179</v>
-      </c>
-      <c r="E311" t="s">
-        <v>13</v>
-      </c>
-      <c r="F311" t="s">
-        <v>205</v>
-      </c>
-      <c r="G311">
-        <v>-1</v>
-      </c>
-      <c r="H311">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="A312" t="s">
-        <v>34</v>
-      </c>
-      <c r="B312" t="s">
-        <v>145</v>
-      </c>
-      <c r="C312" t="s">
-        <v>132</v>
-      </c>
-      <c r="D312" t="s">
-        <v>202</v>
-      </c>
-      <c r="E312" t="s">
-        <v>14</v>
-      </c>
-      <c r="F312" t="s">
-        <v>294</v>
-      </c>
-      <c r="G312">
-        <v>9</v>
-      </c>
-      <c r="H312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" t="s">
-        <v>34</v>
-      </c>
-      <c r="B313" t="s">
-        <v>145</v>
-      </c>
-      <c r="C313" t="s">
-        <v>132</v>
-      </c>
-      <c r="D313" t="s">
-        <v>168</v>
-      </c>
-      <c r="E313" t="s">
-        <v>14</v>
-      </c>
-      <c r="F313" t="s">
-        <v>303</v>
-      </c>
-      <c r="G313">
-        <v>8</v>
-      </c>
-      <c r="H313">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="A314" t="s">
-        <v>34</v>
-      </c>
-      <c r="B314" t="s">
-        <v>145</v>
-      </c>
-      <c r="C314" t="s">
-        <v>132</v>
-      </c>
-      <c r="D314" t="s">
-        <v>179</v>
-      </c>
-      <c r="E314" t="s">
-        <v>14</v>
-      </c>
-      <c r="F314" t="s">
         <v>304</v>
       </c>
-      <c r="G314">
-        <v>11</v>
-      </c>
-      <c r="H314">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
-      <c r="A315" t="s">
-        <v>33</v>
-      </c>
-      <c r="B315" t="s">
-        <v>145</v>
-      </c>
-      <c r="C315" t="s">
-        <v>134</v>
-      </c>
-      <c r="D315" t="s">
-        <v>203</v>
-      </c>
-      <c r="E315" t="s">
-        <v>14</v>
-      </c>
-      <c r="F315" t="s">
-        <v>222</v>
-      </c>
-      <c r="G315">
-        <v>4</v>
-      </c>
-      <c r="H315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" t="s">
-        <v>33</v>
-      </c>
-      <c r="B316" t="s">
-        <v>145</v>
-      </c>
-      <c r="C316" t="s">
-        <v>134</v>
-      </c>
-      <c r="D316" t="s">
-        <v>171</v>
-      </c>
-      <c r="E316" t="s">
-        <v>14</v>
-      </c>
-      <c r="F316" t="s">
-        <v>221</v>
-      </c>
-      <c r="G316">
-        <v>1</v>
-      </c>
-      <c r="H316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="A317" t="s">
-        <v>33</v>
-      </c>
-      <c r="B317" t="s">
-        <v>145</v>
-      </c>
-      <c r="C317" t="s">
-        <v>134</v>
-      </c>
-      <c r="D317" t="s">
-        <v>204</v>
-      </c>
-      <c r="E317" t="s">
-        <v>14</v>
-      </c>
-      <c r="F317" t="s">
-        <v>51</v>
-      </c>
-      <c r="G317">
-        <v>5</v>
-      </c>
-      <c r="H317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="A318" t="s">
-        <v>34</v>
-      </c>
-      <c r="B318" t="s">
-        <v>145</v>
-      </c>
-      <c r="C318" t="s">
-        <v>134</v>
-      </c>
-      <c r="D318" t="s">
-        <v>203</v>
-      </c>
-      <c r="E318" t="s">
-        <v>14</v>
-      </c>
-      <c r="F318" t="s">
-        <v>266</v>
-      </c>
-      <c r="G318">
-        <v>4</v>
-      </c>
-      <c r="H318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" t="s">
-        <v>34</v>
-      </c>
-      <c r="B319" t="s">
-        <v>145</v>
-      </c>
-      <c r="C319" t="s">
-        <v>134</v>
-      </c>
-      <c r="D319" t="s">
-        <v>171</v>
-      </c>
-      <c r="E319" t="s">
-        <v>14</v>
-      </c>
-      <c r="F319" t="s">
-        <v>42</v>
-      </c>
-      <c r="G319">
-        <v>1</v>
-      </c>
-      <c r="H319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="A320" t="s">
-        <v>34</v>
-      </c>
-      <c r="B320" t="s">
-        <v>145</v>
-      </c>
-      <c r="C320" t="s">
-        <v>134</v>
-      </c>
-      <c r="D320" t="s">
-        <v>204</v>
-      </c>
-      <c r="E320" t="s">
-        <v>14</v>
-      </c>
-      <c r="F320" t="s">
-        <v>305</v>
-      </c>
-      <c r="G320">
+      <c r="G299">
         <v>6</v>
       </c>
-      <c r="H320">
+      <c r="H299">
         <v>1</v>
       </c>
     </row>

--- a/power_bi_input/input.xlsx
+++ b/power_bi_input/input.xlsx
@@ -54,7 +54,7 @@
     <t>Achieved</t>
   </si>
   <si>
-    <t>Not Achieved</t>
+    <t>NA</t>
   </si>
   <si>
     <t>Missing</t>
@@ -8127,7 +8127,7 @@
         <v>208</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H57">
         <v>0.4</v>
@@ -8153,7 +8153,7 @@
         <v>208</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H58">
         <v>0.4</v>
@@ -8179,7 +8179,7 @@
         <v>236</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H59">
         <v>0.4</v>
@@ -8205,7 +8205,7 @@
         <v>237</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H60">
         <v>0.4</v>
@@ -8231,7 +8231,7 @@
         <v>237</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H61">
         <v>0.4</v>
@@ -8257,7 +8257,7 @@
         <v>208</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H62">
         <v>0.4</v>
@@ -8283,7 +8283,7 @@
         <v>208</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H63">
         <v>0.4</v>
@@ -8309,7 +8309,7 @@
         <v>208</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H64">
         <v>0.4</v>
@@ -8335,7 +8335,7 @@
         <v>208</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H65">
         <v>0.4</v>
@@ -8361,7 +8361,7 @@
         <v>208</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H66">
         <v>0.4</v>
@@ -8387,7 +8387,7 @@
         <v>238</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H67">
         <v>0.4</v>
@@ -8413,7 +8413,7 @@
         <v>239</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H68">
         <v>0.4</v>
@@ -8439,7 +8439,7 @@
         <v>208</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H69">
         <v>0.4</v>
@@ -8465,7 +8465,7 @@
         <v>208</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H70">
         <v>0.4</v>
@@ -8491,7 +8491,7 @@
         <v>208</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H71">
         <v>0.4</v>
@@ -8517,7 +8517,7 @@
         <v>240</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H72">
         <v>0.4</v>
@@ -8543,7 +8543,7 @@
         <v>213</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H73">
         <v>0.4</v>
@@ -8569,7 +8569,7 @@
         <v>241</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H74">
         <v>0.4</v>
@@ -8595,7 +8595,7 @@
         <v>242</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H75">
         <v>0.4</v>
@@ -8621,7 +8621,7 @@
         <v>242</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H76">
         <v>0.4</v>
@@ -8647,7 +8647,7 @@
         <v>208</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H77">
         <v>0.4</v>
@@ -8673,7 +8673,7 @@
         <v>208</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H78">
         <v>0.4</v>
@@ -8699,7 +8699,7 @@
         <v>208</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H79">
         <v>0.4</v>
@@ -8725,7 +8725,7 @@
         <v>208</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H80">
         <v>0.4</v>
@@ -8751,7 +8751,7 @@
         <v>208</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H81">
         <v>0.4</v>
@@ -12417,7 +12417,7 @@
         <v>261</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -12443,7 +12443,7 @@
         <v>279</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -12469,7 +12469,7 @@
         <v>287</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -13665,7 +13665,7 @@
         <v>208</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H270">
         <v>0.5</v>
@@ -13691,7 +13691,7 @@
         <v>208</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H271">
         <v>0.5</v>
@@ -13717,7 +13717,7 @@
         <v>208</v>
       </c>
       <c r="G272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H272">
         <v>0.5</v>
@@ -13743,7 +13743,7 @@
         <v>208</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H273">
         <v>0.5</v>
@@ -13769,7 +13769,7 @@
         <v>208</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -13795,7 +13795,7 @@
         <v>238</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H275">
         <v>0.5</v>
@@ -13821,7 +13821,7 @@
         <v>238</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H276">
         <v>0.5</v>
@@ -13847,7 +13847,7 @@
         <v>240</v>
       </c>
       <c r="G277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H277">
         <v>0.5</v>
@@ -13873,7 +13873,7 @@
         <v>299</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H278">
         <v>0.5</v>
@@ -13899,7 +13899,7 @@
         <v>208</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H279">
         <v>0</v>

--- a/power_bi_input/input.xlsx
+++ b/power_bi_input/input.xlsx
@@ -6304,7 +6304,7 @@
         <v>208</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H2" t="s">
         <v>310</v>
@@ -6333,7 +6333,7 @@
         <v>209</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>310</v>
@@ -6362,7 +6362,7 @@
         <v>210</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>310</v>
@@ -6391,7 +6391,7 @@
         <v>43</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H5" t="s">
         <v>310</v>
@@ -6420,7 +6420,7 @@
         <v>211</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H6" t="s">
         <v>141</v>
@@ -6448,9 +6448,6 @@
       <c r="F7" t="s">
         <v>212</v>
       </c>
-      <c r="G7">
-        <v>365</v>
-      </c>
       <c r="H7" t="s">
         <v>310</v>
       </c>
@@ -6477,9 +6474,6 @@
       <c r="F8" t="s">
         <v>212</v>
       </c>
-      <c r="G8">
-        <v>365</v>
-      </c>
       <c r="H8" t="s">
         <v>310</v>
       </c>
@@ -6507,7 +6501,7 @@
         <v>213</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H9" t="s">
         <v>310</v>
@@ -6564,9 +6558,6 @@
       <c r="F11" t="s">
         <v>212</v>
       </c>
-      <c r="G11">
-        <v>365</v>
-      </c>
       <c r="H11" t="s">
         <v>310</v>
       </c>
@@ -6593,9 +6584,6 @@
       <c r="F12" t="s">
         <v>212</v>
       </c>
-      <c r="G12">
-        <v>365</v>
-      </c>
       <c r="H12" t="s">
         <v>310</v>
       </c>
@@ -6623,7 +6611,7 @@
         <v>215</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H13" t="s">
         <v>310</v>
@@ -6652,7 +6640,7 @@
         <v>216</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>310</v>
@@ -6739,7 +6727,7 @@
         <v>42</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H17" t="s">
         <v>310</v>
@@ -6768,7 +6756,7 @@
         <v>41</v>
       </c>
       <c r="G18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>310</v>
@@ -6797,7 +6785,7 @@
         <v>219</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H19" t="s">
         <v>310</v>
@@ -6826,7 +6814,7 @@
         <v>220</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H20" t="s">
         <v>310</v>
@@ -6855,7 +6843,7 @@
         <v>221</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="H21" t="s">
         <v>310</v>
@@ -6884,7 +6872,7 @@
         <v>222</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>310</v>
@@ -6913,7 +6901,7 @@
         <v>212</v>
       </c>
       <c r="G23">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H23" t="s">
         <v>141</v>
@@ -6942,7 +6930,7 @@
         <v>212</v>
       </c>
       <c r="G24">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H24" t="s">
         <v>141</v>
@@ -6971,7 +6959,7 @@
         <v>223</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="H25" t="s">
         <v>141</v>
@@ -7000,7 +6988,7 @@
         <v>224</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26" t="s">
         <v>310</v>
@@ -7029,7 +7017,7 @@
         <v>225</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H27" t="s">
         <v>310</v>
@@ -7058,7 +7046,7 @@
         <v>226</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H28" t="s">
         <v>310</v>
@@ -7087,7 +7075,7 @@
         <v>227</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H29" t="s">
         <v>310</v>
@@ -7116,7 +7104,7 @@
         <v>228</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H30" t="s">
         <v>310</v>
@@ -7145,7 +7133,7 @@
         <v>229</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H31" t="s">
         <v>310</v>
@@ -7174,7 +7162,7 @@
         <v>230</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H32" t="s">
         <v>310</v>
@@ -7203,7 +7191,7 @@
         <v>231</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H33" t="s">
         <v>310</v>
@@ -7232,7 +7220,7 @@
         <v>232</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H34" t="s">
         <v>310</v>
@@ -7261,7 +7249,7 @@
         <v>233</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H35" t="s">
         <v>310</v>
@@ -7290,7 +7278,7 @@
         <v>234</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H36" t="s">
         <v>310</v>
@@ -7319,7 +7307,7 @@
         <v>42</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H37" t="s">
         <v>310</v>
@@ -7348,7 +7336,7 @@
         <v>43</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H38" t="s">
         <v>310</v>
@@ -7377,7 +7365,7 @@
         <v>235</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="H39" t="s">
         <v>310</v>
@@ -7406,7 +7394,7 @@
         <v>236</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H40" t="s">
         <v>310</v>
@@ -7435,7 +7423,7 @@
         <v>237</v>
       </c>
       <c r="G41">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H41" t="s">
         <v>310</v>
@@ -7464,7 +7452,7 @@
         <v>238</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H42" t="s">
         <v>310</v>
@@ -7493,7 +7481,7 @@
         <v>223</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H43" t="s">
         <v>141</v>
@@ -7522,7 +7510,7 @@
         <v>239</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H44" t="s">
         <v>310</v>
@@ -7551,7 +7539,7 @@
         <v>240</v>
       </c>
       <c r="G45">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="H45" t="s">
         <v>310</v>
@@ -7580,7 +7568,7 @@
         <v>241</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H46" t="s">
         <v>141</v>
@@ -7638,7 +7626,7 @@
         <v>242</v>
       </c>
       <c r="G48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>310</v>
@@ -7667,7 +7655,7 @@
         <v>215</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H49" t="s">
         <v>310</v>
@@ -7696,7 +7684,7 @@
         <v>229</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H50" t="s">
         <v>310</v>
@@ -7725,7 +7713,7 @@
         <v>243</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H51" t="s">
         <v>310</v>
@@ -7754,7 +7742,7 @@
         <v>43</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H52" t="s">
         <v>310</v>
@@ -7783,7 +7771,7 @@
         <v>221</v>
       </c>
       <c r="G53">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H53" t="s">
         <v>310</v>
@@ -7812,7 +7800,7 @@
         <v>244</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H54" t="s">
         <v>310</v>
@@ -7841,7 +7829,7 @@
         <v>223</v>
       </c>
       <c r="G55">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H55" t="s">
         <v>141</v>
@@ -7870,7 +7858,7 @@
         <v>238</v>
       </c>
       <c r="G56">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="H56" t="s">
         <v>141</v>
@@ -8549,7 +8537,7 @@
         <v>252</v>
       </c>
       <c r="G82">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="H82" t="s">
         <v>310</v>
@@ -8577,9 +8565,6 @@
       <c r="F83" t="s">
         <v>212</v>
       </c>
-      <c r="G83">
-        <v>365</v>
-      </c>
       <c r="I83">
         <v>0</v>
       </c>
@@ -8604,7 +8589,7 @@
         <v>253</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H84" t="s">
         <v>310</v>
@@ -8633,7 +8618,7 @@
         <v>254</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H85" t="s">
         <v>310</v>
@@ -8662,7 +8647,7 @@
         <v>227</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H86" t="s">
         <v>310</v>
@@ -8691,7 +8676,7 @@
         <v>212</v>
       </c>
       <c r="G87">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H87" t="s">
         <v>310</v>
@@ -8719,9 +8704,6 @@
       <c r="F88" t="s">
         <v>212</v>
       </c>
-      <c r="G88">
-        <v>365</v>
-      </c>
       <c r="I88">
         <v>0</v>
       </c>
@@ -8746,7 +8728,7 @@
         <v>255</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H89" t="s">
         <v>310</v>
@@ -8775,7 +8757,7 @@
         <v>229</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H90" t="s">
         <v>310</v>
@@ -8804,7 +8786,7 @@
         <v>51</v>
       </c>
       <c r="G91">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="H91" t="s">
         <v>310</v>
@@ -8833,7 +8815,7 @@
         <v>256</v>
       </c>
       <c r="G92">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H92" t="s">
         <v>310</v>
@@ -8861,9 +8843,6 @@
       <c r="F93" t="s">
         <v>212</v>
       </c>
-      <c r="G93">
-        <v>365</v>
-      </c>
       <c r="I93">
         <v>0</v>
       </c>
@@ -8888,7 +8867,7 @@
         <v>257</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="H94" t="s">
         <v>310</v>
@@ -8917,7 +8896,7 @@
         <v>222</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H95" t="s">
         <v>310</v>
@@ -8946,7 +8925,7 @@
         <v>236</v>
       </c>
       <c r="G96">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="H96" t="s">
         <v>310</v>
@@ -8975,7 +8954,7 @@
         <v>212</v>
       </c>
       <c r="G97">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H97" t="s">
         <v>310</v>
@@ -9003,9 +8982,6 @@
       <c r="F98" t="s">
         <v>212</v>
       </c>
-      <c r="G98">
-        <v>365</v>
-      </c>
       <c r="I98">
         <v>0</v>
       </c>
@@ -9030,7 +9006,7 @@
         <v>258</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H99" t="s">
         <v>310</v>
@@ -9059,7 +9035,7 @@
         <v>259</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H100" t="s">
         <v>310</v>
@@ -9088,7 +9064,7 @@
         <v>238</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H101" t="s">
         <v>310</v>
@@ -9117,7 +9093,7 @@
         <v>212</v>
       </c>
       <c r="G102">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H102" t="s">
         <v>141</v>
@@ -9145,9 +9121,6 @@
       <c r="F103" t="s">
         <v>212</v>
       </c>
-      <c r="G103">
-        <v>365</v>
-      </c>
       <c r="I103">
         <v>0</v>
       </c>
@@ -9172,7 +9145,7 @@
         <v>259</v>
       </c>
       <c r="G104">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H104" t="s">
         <v>141</v>
@@ -9201,7 +9174,7 @@
         <v>237</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H105" t="s">
         <v>310</v>
@@ -9230,7 +9203,7 @@
         <v>260</v>
       </c>
       <c r="G106">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="H106" t="s">
         <v>141</v>
@@ -9259,7 +9232,7 @@
         <v>213</v>
       </c>
       <c r="G107">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H107" t="s">
         <v>310</v>
@@ -9288,7 +9261,7 @@
         <v>212</v>
       </c>
       <c r="G108">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H108" t="s">
         <v>310</v>
@@ -9317,7 +9290,7 @@
         <v>212</v>
       </c>
       <c r="G109">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H109" t="s">
         <v>310</v>
@@ -9346,7 +9319,7 @@
         <v>215</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H110" t="s">
         <v>310</v>
@@ -9375,7 +9348,7 @@
         <v>261</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H111" t="s">
         <v>310</v>
@@ -9404,7 +9377,7 @@
         <v>262</v>
       </c>
       <c r="G112">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H112" t="s">
         <v>310</v>
@@ -9433,7 +9406,7 @@
         <v>42</v>
       </c>
       <c r="G113">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H113" t="s">
         <v>310</v>
@@ -9462,7 +9435,7 @@
         <v>263</v>
       </c>
       <c r="G114">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H114" t="s">
         <v>310</v>
@@ -9491,7 +9464,7 @@
         <v>249</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H115" t="s">
         <v>310</v>
@@ -9520,7 +9493,7 @@
         <v>221</v>
       </c>
       <c r="G116">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="H116" t="s">
         <v>310</v>
@@ -9549,7 +9522,7 @@
         <v>264</v>
       </c>
       <c r="G117">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H117" t="s">
         <v>310</v>
@@ -9578,7 +9551,7 @@
         <v>265</v>
       </c>
       <c r="G118">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H118" t="s">
         <v>310</v>
@@ -9607,7 +9580,7 @@
         <v>236</v>
       </c>
       <c r="G119">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="H119" t="s">
         <v>310</v>
@@ -9636,7 +9609,7 @@
         <v>212</v>
       </c>
       <c r="G120">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H120" t="s">
         <v>141</v>
@@ -9665,7 +9638,7 @@
         <v>212</v>
       </c>
       <c r="G121">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H121" t="s">
         <v>141</v>
@@ -9723,7 +9696,7 @@
         <v>266</v>
       </c>
       <c r="G123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>310</v>
@@ -9752,7 +9725,7 @@
         <v>214</v>
       </c>
       <c r="G124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>310</v>
@@ -9781,7 +9754,7 @@
         <v>267</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H125" t="s">
         <v>310</v>
@@ -9810,7 +9783,7 @@
         <v>267</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H126" t="s">
         <v>310</v>
@@ -9839,7 +9812,7 @@
         <v>268</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H127" t="s">
         <v>310</v>
@@ -9868,7 +9841,7 @@
         <v>51</v>
       </c>
       <c r="G128">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H128" t="s">
         <v>310</v>
@@ -9897,7 +9870,7 @@
         <v>41</v>
       </c>
       <c r="G129">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
         <v>310</v>
@@ -9926,7 +9899,7 @@
         <v>210</v>
       </c>
       <c r="G130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>310</v>
@@ -9955,7 +9928,7 @@
         <v>43</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H131" t="s">
         <v>310</v>
@@ -9984,7 +9957,7 @@
         <v>222</v>
       </c>
       <c r="G132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>310</v>
@@ -10013,7 +9986,7 @@
         <v>243</v>
       </c>
       <c r="G133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>310</v>
@@ -10042,7 +10015,7 @@
         <v>258</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H134" t="s">
         <v>141</v>
@@ -10071,7 +10044,7 @@
         <v>269</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H135" t="s">
         <v>310</v>
@@ -10100,7 +10073,7 @@
         <v>269</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H136" t="s">
         <v>310</v>
@@ -10129,7 +10102,7 @@
         <v>270</v>
       </c>
       <c r="G137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>310</v>
@@ -10158,7 +10131,7 @@
         <v>242</v>
       </c>
       <c r="G138">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H138" t="s">
         <v>310</v>
@@ -10187,7 +10160,7 @@
         <v>271</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H139" t="s">
         <v>310</v>
@@ -10216,7 +10189,7 @@
         <v>42</v>
       </c>
       <c r="G140">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H140" t="s">
         <v>141</v>
@@ -10245,7 +10218,7 @@
         <v>272</v>
       </c>
       <c r="G141">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
         <v>310</v>
@@ -10274,7 +10247,7 @@
         <v>39</v>
       </c>
       <c r="G142">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H142" t="s">
         <v>310</v>
@@ -10303,7 +10276,7 @@
         <v>214</v>
       </c>
       <c r="G143">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H143" t="s">
         <v>310</v>
@@ -10332,7 +10305,7 @@
         <v>273</v>
       </c>
       <c r="G144">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H144" t="s">
         <v>310</v>
@@ -10361,7 +10334,7 @@
         <v>252</v>
       </c>
       <c r="G145">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="H145" t="s">
         <v>310</v>
@@ -10390,7 +10363,7 @@
         <v>274</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H146" t="s">
         <v>310</v>
@@ -10448,7 +10421,7 @@
         <v>275</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H148" t="s">
         <v>310</v>
@@ -10477,7 +10450,7 @@
         <v>276</v>
       </c>
       <c r="G149">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H149" t="s">
         <v>310</v>
@@ -10506,7 +10479,7 @@
         <v>243</v>
       </c>
       <c r="G150">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H150" t="s">
         <v>310</v>
@@ -10535,7 +10508,7 @@
         <v>48</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H151" t="s">
         <v>310</v>
@@ -10564,7 +10537,7 @@
         <v>277</v>
       </c>
       <c r="G152">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H152" t="s">
         <v>310</v>
@@ -10593,7 +10566,7 @@
         <v>278</v>
       </c>
       <c r="G153">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H153" t="s">
         <v>310</v>
@@ -10622,7 +10595,7 @@
         <v>279</v>
       </c>
       <c r="G154">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H154" t="s">
         <v>141</v>
@@ -10651,7 +10624,7 @@
         <v>221</v>
       </c>
       <c r="G155">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H155" t="s">
         <v>141</v>
@@ -10680,7 +10653,7 @@
         <v>212</v>
       </c>
       <c r="G156">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H156" t="s">
         <v>141</v>
@@ -10709,7 +10682,7 @@
         <v>212</v>
       </c>
       <c r="G157">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H157" t="s">
         <v>141</v>
@@ -10738,7 +10711,7 @@
         <v>237</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H158" t="s">
         <v>310</v>
@@ -10767,7 +10740,7 @@
         <v>238</v>
       </c>
       <c r="G159">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H159" t="s">
         <v>310</v>
@@ -10796,7 +10769,7 @@
         <v>280</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H160" t="s">
         <v>310</v>
@@ -10825,7 +10798,7 @@
         <v>281</v>
       </c>
       <c r="G161">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H161" t="s">
         <v>310</v>
@@ -10883,7 +10856,7 @@
         <v>44</v>
       </c>
       <c r="G163">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
         <v>310</v>
@@ -10912,7 +10885,7 @@
         <v>228</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H164" t="s">
         <v>310</v>
@@ -10941,7 +10914,7 @@
         <v>254</v>
       </c>
       <c r="G165">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="H165" t="s">
         <v>310</v>
@@ -10970,7 +10943,7 @@
         <v>257</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H166" t="s">
         <v>310</v>
@@ -10999,7 +10972,7 @@
         <v>41</v>
       </c>
       <c r="G167">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="H167" t="s">
         <v>310</v>
@@ -11028,7 +11001,7 @@
         <v>272</v>
       </c>
       <c r="G168">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H168" t="s">
         <v>310</v>
@@ -11086,7 +11059,7 @@
         <v>244</v>
       </c>
       <c r="G170">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="H170" t="s">
         <v>310</v>
@@ -11115,7 +11088,7 @@
         <v>283</v>
       </c>
       <c r="G171">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="H171" t="s">
         <v>310</v>
@@ -11144,7 +11117,7 @@
         <v>266</v>
       </c>
       <c r="G172">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H172" t="s">
         <v>310</v>
@@ -11173,7 +11146,7 @@
         <v>214</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H173" t="s">
         <v>310</v>
@@ -11202,7 +11175,7 @@
         <v>267</v>
       </c>
       <c r="G174">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H174" t="s">
         <v>310</v>
@@ -11231,7 +11204,7 @@
         <v>284</v>
       </c>
       <c r="G175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>310</v>
@@ -11289,7 +11262,7 @@
         <v>48</v>
       </c>
       <c r="G177">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H177" t="s">
         <v>310</v>
@@ -11318,7 +11291,7 @@
         <v>221</v>
       </c>
       <c r="G178">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H178" t="s">
         <v>310</v>
@@ -11347,7 +11320,7 @@
         <v>48</v>
       </c>
       <c r="G179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H179" t="s">
         <v>310</v>
@@ -11376,7 +11349,7 @@
         <v>238</v>
       </c>
       <c r="G180">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H180" t="s">
         <v>310</v>
@@ -11405,7 +11378,7 @@
         <v>235</v>
       </c>
       <c r="G181">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>310</v>
@@ -11434,7 +11407,7 @@
         <v>282</v>
       </c>
       <c r="G182">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="H182" t="s">
         <v>310</v>
@@ -11463,7 +11436,7 @@
         <v>228</v>
       </c>
       <c r="G183">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="H183" t="s">
         <v>310</v>
@@ -11492,7 +11465,7 @@
         <v>257</v>
       </c>
       <c r="G184">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="H184" t="s">
         <v>310</v>
@@ -11521,7 +11494,7 @@
         <v>269</v>
       </c>
       <c r="G185">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
         <v>141</v>
@@ -11550,7 +11523,7 @@
         <v>244</v>
       </c>
       <c r="G186">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
         <v>310</v>
@@ -11579,7 +11552,7 @@
         <v>285</v>
       </c>
       <c r="G187">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="H187" t="s">
         <v>310</v>
@@ -11608,7 +11581,7 @@
         <v>286</v>
       </c>
       <c r="G188">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="H188" t="s">
         <v>310</v>
@@ -11637,7 +11610,7 @@
         <v>242</v>
       </c>
       <c r="G189">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="H189" t="s">
         <v>310</v>
@@ -11666,7 +11639,7 @@
         <v>228</v>
       </c>
       <c r="G190">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H190" t="s">
         <v>310</v>
@@ -11695,7 +11668,7 @@
         <v>287</v>
       </c>
       <c r="G191">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="H191" t="s">
         <v>310</v>
@@ -11724,7 +11697,7 @@
         <v>47</v>
       </c>
       <c r="G192">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H192" t="s">
         <v>310</v>
@@ -11753,7 +11726,7 @@
         <v>211</v>
       </c>
       <c r="G193">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H193" t="s">
         <v>141</v>
@@ -11782,7 +11755,7 @@
         <v>211</v>
       </c>
       <c r="G194">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="H194" t="s">
         <v>141</v>
@@ -11811,7 +11784,7 @@
         <v>239</v>
       </c>
       <c r="G195">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H195" t="s">
         <v>310</v>
@@ -11840,7 +11813,7 @@
         <v>223</v>
       </c>
       <c r="G196">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H196" t="s">
         <v>310</v>
@@ -11898,7 +11871,7 @@
         <v>285</v>
       </c>
       <c r="G198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>310</v>
@@ -11927,7 +11900,7 @@
         <v>286</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H199" t="s">
         <v>310</v>
@@ -11985,7 +11958,7 @@
         <v>242</v>
       </c>
       <c r="G201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>310</v>
@@ -12014,7 +11987,7 @@
         <v>213</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H202" t="s">
         <v>141</v>
@@ -12072,7 +12045,7 @@
         <v>41</v>
       </c>
       <c r="G204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>310</v>
@@ -12130,7 +12103,7 @@
         <v>233</v>
       </c>
       <c r="G206">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H206" t="s">
         <v>141</v>
@@ -12159,7 +12132,7 @@
         <v>234</v>
       </c>
       <c r="G207">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="H207" t="s">
         <v>141</v>
@@ -12188,7 +12161,7 @@
         <v>243</v>
       </c>
       <c r="G208">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H208" t="s">
         <v>141</v>
@@ -12217,7 +12190,7 @@
         <v>269</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H209" t="s">
         <v>310</v>
@@ -12246,7 +12219,7 @@
         <v>272</v>
       </c>
       <c r="G210">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>310</v>
@@ -12275,7 +12248,7 @@
         <v>221</v>
       </c>
       <c r="G211">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H211" t="s">
         <v>310</v>
@@ -12333,7 +12306,7 @@
         <v>268</v>
       </c>
       <c r="G213">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H213" t="s">
         <v>141</v>
@@ -12362,7 +12335,7 @@
         <v>289</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H214" t="s">
         <v>310</v>
@@ -12391,7 +12364,7 @@
         <v>290</v>
       </c>
       <c r="G215">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H215" t="s">
         <v>310</v>
@@ -12420,7 +12393,7 @@
         <v>291</v>
       </c>
       <c r="G216">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="H216" t="s">
         <v>310</v>
@@ -12449,7 +12422,7 @@
         <v>212</v>
       </c>
       <c r="G217">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H217" t="s">
         <v>141</v>
@@ -12478,7 +12451,7 @@
         <v>212</v>
       </c>
       <c r="G218">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H218" t="s">
         <v>141</v>
@@ -12565,7 +12538,7 @@
         <v>293</v>
       </c>
       <c r="G221">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H221" t="s">
         <v>310</v>
@@ -12594,7 +12567,7 @@
         <v>294</v>
       </c>
       <c r="G222">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H222" t="s">
         <v>310</v>
@@ -12623,7 +12596,7 @@
         <v>46</v>
       </c>
       <c r="G223">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="H223" t="s">
         <v>141</v>
@@ -12652,7 +12625,7 @@
         <v>287</v>
       </c>
       <c r="G224">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="H224" t="s">
         <v>141</v>
@@ -12681,7 +12654,7 @@
         <v>295</v>
       </c>
       <c r="G225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>310</v>
@@ -12817,7 +12790,7 @@
         <v>296</v>
       </c>
       <c r="G230">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H230" t="s">
         <v>310</v>
@@ -12846,7 +12819,7 @@
         <v>214</v>
       </c>
       <c r="G231">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H231" t="s">
         <v>310</v>
@@ -12875,7 +12848,7 @@
         <v>293</v>
       </c>
       <c r="G232">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H232" t="s">
         <v>310</v>
@@ -12904,7 +12877,7 @@
         <v>253</v>
       </c>
       <c r="G233">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H233" t="s">
         <v>310</v>
@@ -12933,7 +12906,7 @@
         <v>212</v>
       </c>
       <c r="G234">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H234" t="s">
         <v>141</v>
@@ -12962,7 +12935,7 @@
         <v>215</v>
       </c>
       <c r="G235">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="H235" t="s">
         <v>141</v>
@@ -12991,7 +12964,7 @@
         <v>47</v>
       </c>
       <c r="G236">
-        <v>29</v>
+        <v>-29</v>
       </c>
       <c r="H236" t="s">
         <v>141</v>
@@ -13020,7 +12993,7 @@
         <v>298</v>
       </c>
       <c r="G237">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="H237" t="s">
         <v>141</v>
@@ -13107,7 +13080,7 @@
         <v>43</v>
       </c>
       <c r="G240">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="H240" t="s">
         <v>310</v>
@@ -13165,7 +13138,7 @@
         <v>253</v>
       </c>
       <c r="G242">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="H242" t="s">
         <v>310</v>
@@ -13194,7 +13167,7 @@
         <v>294</v>
       </c>
       <c r="G243">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H243" t="s">
         <v>310</v>
@@ -13223,7 +13196,7 @@
         <v>254</v>
       </c>
       <c r="G244">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H244" t="s">
         <v>310</v>
@@ -13252,7 +13225,7 @@
         <v>298</v>
       </c>
       <c r="G245">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="H245" t="s">
         <v>141</v>
@@ -13281,7 +13254,7 @@
         <v>46</v>
       </c>
       <c r="G246">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="H246" t="s">
         <v>310</v>
@@ -13310,7 +13283,7 @@
         <v>51</v>
       </c>
       <c r="G247">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="H247" t="s">
         <v>310</v>
@@ -13368,7 +13341,7 @@
         <v>295</v>
       </c>
       <c r="G249">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>310</v>
@@ -13397,7 +13370,7 @@
         <v>234</v>
       </c>
       <c r="G250">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H250" t="s">
         <v>310</v>
@@ -13455,7 +13428,7 @@
         <v>300</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H252" t="s">
         <v>310</v>
@@ -13484,7 +13457,7 @@
         <v>40</v>
       </c>
       <c r="G253">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H253" t="s">
         <v>310</v>
@@ -13513,7 +13486,7 @@
         <v>209</v>
       </c>
       <c r="G254">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H254" t="s">
         <v>310</v>
@@ -13542,7 +13515,7 @@
         <v>301</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H255" t="s">
         <v>310</v>
@@ -13571,7 +13544,7 @@
         <v>47</v>
       </c>
       <c r="G256">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H256" t="s">
         <v>310</v>
@@ -13629,7 +13602,7 @@
         <v>302</v>
       </c>
       <c r="G258">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="H258" t="s">
         <v>310</v>
@@ -13687,7 +13660,7 @@
         <v>210</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H260" t="s">
         <v>310</v>
@@ -13716,7 +13689,7 @@
         <v>287</v>
       </c>
       <c r="G261">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="H261" t="s">
         <v>310</v>
@@ -13774,7 +13747,7 @@
         <v>284</v>
       </c>
       <c r="G263">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H263" t="s">
         <v>310</v>
@@ -13803,7 +13776,7 @@
         <v>209</v>
       </c>
       <c r="G264">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H264" t="s">
         <v>310</v>
@@ -13832,7 +13805,7 @@
         <v>267</v>
       </c>
       <c r="G265">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H265" t="s">
         <v>310</v>
@@ -13861,7 +13834,7 @@
         <v>303</v>
       </c>
       <c r="G266">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="H266" t="s">
         <v>310</v>
@@ -13890,7 +13863,7 @@
         <v>47</v>
       </c>
       <c r="G267">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>310</v>
@@ -13919,7 +13892,7 @@
         <v>304</v>
       </c>
       <c r="G268">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>310</v>
@@ -13948,7 +13921,7 @@
         <v>295</v>
       </c>
       <c r="G269">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>310</v>
@@ -13977,7 +13950,7 @@
         <v>222</v>
       </c>
       <c r="G270">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
         <v>310</v>
@@ -14006,7 +13979,7 @@
         <v>228</v>
       </c>
       <c r="G271">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="H271" t="s">
         <v>310</v>
@@ -14035,7 +14008,7 @@
         <v>284</v>
       </c>
       <c r="G272">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="H272" t="s">
         <v>310</v>
@@ -14064,7 +14037,7 @@
         <v>289</v>
       </c>
       <c r="G273">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H273" t="s">
         <v>310</v>
@@ -14093,7 +14066,7 @@
         <v>257</v>
       </c>
       <c r="G274">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H274" t="s">
         <v>310</v>
@@ -14411,7 +14384,7 @@
         <v>52</v>
       </c>
       <c r="G286">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H286" t="s">
         <v>310</v>
@@ -14440,7 +14413,7 @@
         <v>216</v>
       </c>
       <c r="G287">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>310</v>
@@ -14469,7 +14442,7 @@
         <v>230</v>
       </c>
       <c r="G288">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="H288" t="s">
         <v>310</v>
@@ -14527,7 +14500,7 @@
         <v>46</v>
       </c>
       <c r="G290">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H290" t="s">
         <v>310</v>
@@ -14556,7 +14529,7 @@
         <v>299</v>
       </c>
       <c r="G291">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H291" t="s">
         <v>310</v>
@@ -14585,7 +14558,7 @@
         <v>43</v>
       </c>
       <c r="G292">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H292" t="s">
         <v>310</v>
@@ -14614,7 +14587,7 @@
         <v>307</v>
       </c>
       <c r="G293">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H293" t="s">
         <v>310</v>
@@ -14643,7 +14616,7 @@
         <v>212</v>
       </c>
       <c r="G294">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H294" t="s">
         <v>310</v>
@@ -14672,7 +14645,7 @@
         <v>212</v>
       </c>
       <c r="G295">
-        <v>365</v>
+        <v>-365</v>
       </c>
       <c r="H295" t="s">
         <v>310</v>
@@ -14701,7 +14674,7 @@
         <v>299</v>
       </c>
       <c r="G296">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H296" t="s">
         <v>310</v>
@@ -14730,7 +14703,7 @@
         <v>297</v>
       </c>
       <c r="G297">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H297" t="s">
         <v>310</v>
@@ -14759,7 +14732,7 @@
         <v>308</v>
       </c>
       <c r="G298">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H298" t="s">
         <v>310</v>
@@ -14788,7 +14761,7 @@
         <v>227</v>
       </c>
       <c r="G299">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H299" t="s">
         <v>310</v>
@@ -14817,7 +14790,7 @@
         <v>226</v>
       </c>
       <c r="G300">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H300" t="s">
         <v>310</v>
@@ -14846,7 +14819,7 @@
         <v>50</v>
       </c>
       <c r="G301">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H301" t="s">
         <v>310</v>
@@ -14875,7 +14848,7 @@
         <v>271</v>
       </c>
       <c r="G302">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H302" t="s">
         <v>310</v>
@@ -14904,7 +14877,7 @@
         <v>41</v>
       </c>
       <c r="G303">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>310</v>
@@ -14933,7 +14906,7 @@
         <v>309</v>
       </c>
       <c r="G304">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H304" t="s">
         <v>310</v>
